--- a/benchmarks/cscs2022/xlsx/Random/130.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/130.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7602EEF-4AE2-4704-9655-55E1BD4FA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8AEB-C030-4A0D-99C8-7896F9619EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,404 +35,410 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -748,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E82" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>51.698061322700397</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>17.599340024749072</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>57.060360236491128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -811,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>43.448370686099274</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -825,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>43.585865530042625</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -839,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>113.29575140932215</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>58.572803519868003</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -867,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>114.25821531692561</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>19.524267839956003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>7.837206104771071</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>2.8873917228103942</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>78.92204042348412</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>93.633988725422796</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -951,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>121.27045235803658</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>96.246390760346486</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>80.159494018974286</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>18.594272963927111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>19.957852981281764</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="2">
-        <v>91.483822982521389</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>96.070410313623398</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>110.57394322548656</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>78.963679186810467</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>71.525970001239614</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>77.104251890417757</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>37.560431387132759</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>64.95599355398538</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>25.288211230940867</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>76.856328250898713</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>32.849882236271227</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>66.31957357134003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>72.517664559315733</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>59.377711664807237</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>106.921185150486</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1231,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>12.999180231877268</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>94.624663309521011</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>29.277432954678535</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46.141234336573369</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>80.454385759456613</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>115.47019557325214</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>64.176133036655344</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>47.546551118397936</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>10.7740953273217</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1357,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>73.896240777608625</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>18.971776554631692</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1385,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>78.580630050357186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1399,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>44.735917554748802</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>81.85970254128118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>93.570675723152604</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2">
-        <v>56.885813148788927</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1455,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2">
-        <v>98.96193771626298</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="2">
-        <v>82.214532871972324</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2">
-        <v>41.522491349480966</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="2">
-        <v>131.21107266435985</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="2">
-        <v>4.7058823529411757</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="2">
-        <v>20.207612456747405</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>90.51903114186851</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2">
-        <v>82.768166089965405</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2">
-        <v>16.055363321799309</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1581,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2">
-        <v>119.86159169550173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2">
-        <v>97.162629757785467</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1609,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2">
-        <v>61.591695501730101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1623,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="2">
-        <v>4.2906574394463668</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1637,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2">
-        <v>51.903114186851205</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2">
-        <v>40.13840830449827</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1665,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2">
-        <v>110.42078508895791</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1679,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="2">
-        <v>28.381813047161817</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1693,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2">
-        <v>3.6712792996328725</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1707,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>45.326179045467384</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1721,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="2">
-        <v>96.865292290313477</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>23.016097147698392</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1749,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="2">
-        <v>112.96243998870375</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2">
-        <v>84.721829991527812</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1777,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>77.379271392262069</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1791,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>97.430104490256994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="2">
-        <v>21.321660547867832</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1819,7 +1825,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="2">
-        <v>99.124541090087547</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1833,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="2">
-        <v>84.015814741598419</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1847,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="2">
-        <v>46.45580344535442</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>64.953402993504668</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1875,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="2">
-        <v>3.9536853996046317</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1889,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="D81" s="2">
-        <v>19.909599655617736</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1903,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>99.54799827808867</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1917,7 +1923,7 @@
         <v>14</v>
       </c>
       <c r="D83" s="2">
-        <v>66.724063710718895</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1931,7 +1937,7 @@
         <v>14</v>
       </c>
       <c r="D84" s="2">
-        <v>51.657339647008179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1945,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="2">
-        <v>83.620318553594487</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1959,7 +1965,7 @@
         <v>14</v>
       </c>
       <c r="D86" s="2">
-        <v>78.669823504089536</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1973,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="2">
-        <v>89.10891089108911</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,7 +1993,7 @@
         <v>14</v>
       </c>
       <c r="D88" s="2">
-        <v>7.3181231166594918</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2001,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="D89" s="2">
-        <v>35.944898837709857</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2015,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="2">
-        <v>95.13560051657339</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="2">
-        <v>68.230736117089975</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="2">
-        <v>50.150667240637112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,7 +2063,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="2">
-        <v>91.261300043047783</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2071,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="2">
-        <v>67.692638829100304</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="2">
-        <v>70.167886353852779</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2099,7 +2105,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="2">
-        <v>24.860094705122684</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="D97" s="2">
-        <v>12.871726586773191</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2127,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="2">
-        <v>0.59180352123095137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2141,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="2">
-        <v>140.99718893327415</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2155,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="2">
-        <v>47.936085219707053</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2169,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="2">
-        <v>43.201657049859449</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,7 +2189,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="2">
-        <v>61.399615327711203</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2197,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="2">
-        <v>61.843467968634414</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2211,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="2">
-        <v>103.71356709572422</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,7 +2231,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="2">
-        <v>57.848794200325493</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2239,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>96.168072200029584</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2253,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="2">
-        <v>119.39636040834444</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="2">
-        <v>90.397987868027812</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2281,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="2">
-        <v>41.130344725551119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2295,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="2">
-        <v>36.839769196626726</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="2">
-        <v>43.64550969078266</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2323,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="2">
-        <v>42.018050007397541</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>66.897622745191725</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,7 +2357,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>17.79954605184566</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>62.716521323617258</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="2">
-        <v>23.414167960817107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2393,7 +2399,7 @@
         <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>49.934296977660971</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="2">
-        <v>8.242742802532554</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2421,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="D119" s="2">
-        <v>75.976585832039191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,7 +2441,7 @@
         <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>43.722374865607456</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="2">
-        <v>4.6589415840401394</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="2">
-        <v>80.635527416079327</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2483,7 @@
         <v>16</v>
       </c>
       <c r="D123" s="2">
-        <v>57.460279536495044</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="D124" s="2">
-        <v>30.342850316569109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="2">
-        <v>53.876478318002633</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,7 +2525,7 @@
         <v>16</v>
       </c>
       <c r="D126" s="2">
-        <v>69.286823557520009</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="2">
-        <v>92.223151355871465</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="D128" s="2">
-        <v>78.007406522518224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="2">
-        <v>94.851272249432554</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,10 +2581,11 @@
         <v>16</v>
       </c>
       <c r="D130" s="2">
-        <v>89.953410584159599</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>